--- a/app/data/absenteeism_data_3.xlsx
+++ b/app/data/absenteeism_data_3.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39388</v>
+        <v>52998</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Barbosa</t>
+          <t>Sarah Nogueira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>6196.7</v>
+        <v>11725.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41077</v>
+        <v>25401</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joaquim Lima</t>
+          <t>André Araújo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>6143.08</v>
+        <v>11185.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37123</v>
+        <v>64754</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Miguel Cunha</t>
+          <t>Thiago Souza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>11889.61</v>
+        <v>6257.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23138</v>
+        <v>13551</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Emanuella da Paz</t>
+          <t>Lucas Barros</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>2656.44</v>
+        <v>4643.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98645</v>
+        <v>84112</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pietro Rezende</t>
+          <t>Catarina Silveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>12120.93</v>
+        <v>7121.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64718</v>
+        <v>70186</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Otávio da Luz</t>
+          <t>Maria Julia Pires</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,80 +639,80 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>7894.71</v>
+        <v>4499.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43745</v>
+        <v>48889</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lucas da Costa</t>
+          <t>Vitor Almeida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>9770.73</v>
+        <v>7831.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22789</v>
+        <v>50722</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nina Freitas</t>
+          <t>Nicolas Araújo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>8528.42</v>
+        <v>10976.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27530</v>
+        <v>18137</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Evelyn da Costa</t>
+          <t>Pedro Porto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,31 +722,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>10368.21</v>
+        <v>7877.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83089</v>
+        <v>5100</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lara Teixeira</t>
+          <t>Danilo Almeida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>10310.54</v>
+        <v>6065.48</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_3.xlsx
+++ b/app/data/absenteeism_data_3.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17717</v>
+        <v>50115</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Ana Sophia Aragão</t>
+          <t>Otávio da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,22 +494,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>10946.89</v>
+        <v>6602.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20694</v>
+        <v>66281</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Peixoto</t>
+          <t>Otávio Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,167 +523,167 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>4916.7</v>
+        <v>7884.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68576</v>
+        <v>58148</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Otávio Castro</t>
+          <t>Maria Cecília da Mota</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>11183.66</v>
+        <v>4323.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91991</v>
+        <v>29437</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Cecília da Conceição</t>
+          <t>Ana Carolina Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>3480.6</v>
+        <v>8365.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65213</v>
+        <v>78641</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marina Rodrigues</t>
+          <t>Sr. André da Conceição</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>6347.93</v>
+        <v>6251.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2355</v>
+        <v>74160</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Heitor Melo</t>
+          <t>Vicente Costela</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>7206.85</v>
+        <v>7185.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83623</v>
+        <v>83695</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Clara Carvalho</t>
+          <t>Camila da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>6503.52</v>
+        <v>12455.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44527</v>
+        <v>35363</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Fernando Ferreira</t>
+          <t>Mariane Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,60 +693,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>5459.58</v>
+        <v>12194.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95460</v>
+        <v>11701</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luigi da Mota</t>
+          <t>Marcos Vinicius Gonçalves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>6215.41</v>
+        <v>2518.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25594</v>
+        <v>8722</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bruna Carvalho</t>
+          <t>Luiz Otávio Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>6949.57</v>
+        <v>2972.12</v>
       </c>
     </row>
   </sheetData>
